--- a/biology/Zoologie/Cornechiniscus/Cornechiniscus.xlsx
+++ b/biology/Zoologie/Cornechiniscus/Cornechiniscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornechiniscus est un genre de tardigrades de la famille des Echiniscidae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2013[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2013 :
 Cornechiniscus brachycornutus Maucci, 1987
 Cornechiniscus ceratophorus (Maucci, 1973)
 Cornechiniscus cornutus (Richters, 1907)
 Cornechiniscus holmeni (Petersen, 1951)
 Cornechiniscus lobatus (Ramazzotti, 1943)
 Cornechiniscus madagascariensis (Maucci, 1993)
-Cornechiniscus mystacinus (Gąsiorek, 2022)[2]
+Cornechiniscus mystacinus (Gąsiorek, 2022)
 Cornechiniscus schrammi (Dastych, 1979)
 Cornechiniscus subcornutus Maucci &amp; Ramazzotti, 1981
 Cornechiniscus tibetanus (Maucci, 1979)</t>
@@ -551,7 +565,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maucci &amp; Ramazzotti, 1981 : Cornechiniscus gen. nov.: nuova posizione sistematica per i cosiddetti 'Pseudchiniscus gruppo cornutus', con descrizione di una nuova specie (Tardigrada, Echiniscidae). Memorie dell'Istituto Italiano di Idrobiologia Dott Marco de Marchi, vol. 39, p. 147-151.</t>
         </is>
